--- a/src/assets/Candidate_Template-Instruction.xlsx
+++ b/src/assets/Candidate_Template-Instruction.xlsx
@@ -4,21 +4,21 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="8250" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12930" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TemplateCandidate Template" sheetId="1" r:id="rId1"/>
     <sheet name="candidate_instruction" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'TemplateCandidate Template'!$G$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'TemplateCandidate Template'!$E$1:$E$1</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="62">
   <si>
     <t>Sl No</t>
   </si>
@@ -26,18 +26,12 @@
     <t>Batch ID</t>
   </si>
   <si>
-    <t>Candidate ID</t>
-  </si>
-  <si>
     <t>Candidate Name</t>
   </si>
   <si>
     <t>DOB</t>
   </si>
   <si>
-    <t>Father Name</t>
-  </si>
-  <si>
     <t>Gender</t>
   </si>
   <si>
@@ -50,12 +44,6 @@
     <t>Category</t>
   </si>
   <si>
-    <t>Mobile</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
     <t>Education Attained</t>
   </si>
   <si>
@@ -71,6 +59,18 @@
     <t>Minority</t>
   </si>
   <si>
+    <t>Is Assessment Complete</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>Is Candidate Placed</t>
+  </si>
+  <si>
+    <t>Placement Type</t>
+  </si>
+  <si>
     <t>Field Name</t>
   </si>
   <si>
@@ -101,12 +101,6 @@
     <t>String</t>
   </si>
   <si>
-    <t>Unique ID assigned to the candidate</t>
-  </si>
-  <si>
-    <t>"CAND12345" OR "12345"</t>
-  </si>
-  <si>
     <t>Batch ID to which the candidate is assigned</t>
   </si>
   <si>
@@ -128,12 +122,6 @@
     <t>"2000-05-15"</t>
   </si>
   <si>
-    <t>Father’s name of the candidate</t>
-  </si>
-  <si>
-    <t>"Robert Doe"</t>
-  </si>
-  <si>
     <t>String (Dropdown)</t>
   </si>
   <si>
@@ -161,18 +149,6 @@
     <t>"General"</t>
   </si>
   <si>
-    <t>Mobile number of the candidate</t>
-  </si>
-  <si>
-    <t>"9876543210"</t>
-  </si>
-  <si>
-    <t>Email address of the candidate</t>
-  </si>
-  <si>
-    <t>"john.doe@example.com"</t>
-  </si>
-  <si>
     <t>Highest education qualification attained</t>
   </si>
   <si>
@@ -183,6 +159,24 @@
   </si>
   <si>
     <t>"None"</t>
+  </si>
+  <si>
+    <t>Assessment Complete or Not</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>Pass Or Fail</t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t>Candidate Placed Or Not</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLacement Type </t>
   </si>
   <si>
     <t>INSTRUCTION</t>
@@ -367,6 +361,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">5. </t>
     </r>
     <r>
@@ -396,6 +397,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Example:</t>
     </r>
     <r>
@@ -420,7 +429,7 @@
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="24">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -453,6 +462,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -461,9 +478,25 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -476,7 +509,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -484,9 +517,39 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -498,45 +561,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -545,6 +569,42 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -552,72 +612,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -628,187 +622,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -837,11 +831,35 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -893,6 +911,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -901,188 +928,155 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1091,6 +1085,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1474,49 +1469,51 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q1"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="7.3" customWidth="1"/>
-    <col min="3" max="3" width="11.4" customWidth="1"/>
-    <col min="4" max="4" width="14.7" customWidth="1"/>
-    <col min="5" max="5" width="12.4" customWidth="1"/>
-    <col min="6" max="6" width="11.6" customWidth="1"/>
-    <col min="8" max="8" width="14.9" customWidth="1"/>
-    <col min="11" max="11" width="16.6" customWidth="1"/>
-    <col min="13" max="13" width="16.7" customWidth="1"/>
-    <col min="15" max="15" width="9.6" customWidth="1"/>
-    <col min="16" max="16" width="11.8" customWidth="1"/>
-    <col min="18" max="18" width="17" customWidth="1"/>
-    <col min="19" max="19" width="16.2" customWidth="1"/>
-    <col min="20" max="20" width="14.7" customWidth="1"/>
-    <col min="21" max="21" width="14.8" customWidth="1"/>
-    <col min="22" max="22" width="13.6" customWidth="1"/>
-    <col min="23" max="23" width="20" customWidth="1"/>
-    <col min="24" max="24" width="19.2" customWidth="1"/>
-    <col min="25" max="25" width="15.3" customWidth="1"/>
-    <col min="26" max="26" width="13.2" customWidth="1"/>
-    <col min="27" max="27" width="27.2" customWidth="1"/>
-    <col min="28" max="28" width="28.8" customWidth="1"/>
-    <col min="29" max="29" width="16.9" customWidth="1"/>
-    <col min="30" max="30" width="14.6" customWidth="1"/>
-    <col min="31" max="31" width="16.2" customWidth="1"/>
-    <col min="32" max="32" width="14.7" customWidth="1"/>
-    <col min="33" max="33" width="13.5" customWidth="1"/>
-    <col min="34" max="34" width="19.9" customWidth="1"/>
-    <col min="35" max="35" width="19.2" customWidth="1"/>
-    <col min="36" max="36" width="15.2" customWidth="1"/>
-    <col min="37" max="37" width="13.2" customWidth="1"/>
-    <col min="38" max="38" width="27.2" customWidth="1"/>
-    <col min="39" max="39" width="28.7" customWidth="1"/>
-    <col min="40" max="40" width="16.2" customWidth="1"/>
-    <col min="42" max="42" width="11.8" customWidth="1"/>
-    <col min="43" max="43" width="14.7" customWidth="1"/>
+    <col min="1" max="1" width="5.4" customWidth="1"/>
+    <col min="2" max="2" width="8.1" customWidth="1"/>
+    <col min="3" max="3" width="15.2" customWidth="1"/>
+    <col min="4" max="4" width="8.3" customWidth="1"/>
+    <col min="5" max="5" width="7.2" customWidth="1"/>
+    <col min="6" max="6" width="14.7" customWidth="1"/>
+    <col min="7" max="7" width="7.6" customWidth="1"/>
+    <col min="8" max="8" width="8.6" customWidth="1"/>
+    <col min="9" max="9" width="17" customWidth="1"/>
+    <col min="10" max="10" width="8.4" customWidth="1"/>
+    <col min="11" max="11" width="8.9" customWidth="1"/>
+    <col min="12" max="12" width="14.8" customWidth="1"/>
+    <col min="13" max="13" width="7.7" customWidth="1"/>
+    <col min="14" max="14" width="21.8" customWidth="1"/>
+    <col min="15" max="15" width="6.2" customWidth="1"/>
+    <col min="16" max="16" width="17.7" customWidth="1"/>
+    <col min="17" max="17" width="14.6" customWidth="1"/>
+    <col min="18" max="18" width="20" customWidth="1"/>
+    <col min="19" max="19" width="19.2" customWidth="1"/>
+    <col min="20" max="20" width="15.3" customWidth="1"/>
+    <col min="21" max="21" width="13.2" customWidth="1"/>
+    <col min="22" max="22" width="27.2" customWidth="1"/>
+    <col min="23" max="23" width="28.8" customWidth="1"/>
+    <col min="24" max="24" width="16.9" customWidth="1"/>
+    <col min="25" max="25" width="14.6" customWidth="1"/>
+    <col min="26" max="26" width="16.2" customWidth="1"/>
+    <col min="27" max="27" width="14.7" customWidth="1"/>
+    <col min="28" max="28" width="13.5" customWidth="1"/>
+    <col min="29" max="29" width="19.9" customWidth="1"/>
+    <col min="30" max="30" width="19.2" customWidth="1"/>
+    <col min="31" max="31" width="15.2" customWidth="1"/>
+    <col min="32" max="32" width="13.2" customWidth="1"/>
+    <col min="33" max="33" width="27.2" customWidth="1"/>
+    <col min="34" max="34" width="28.7" customWidth="1"/>
+    <col min="35" max="35" width="16.2" customWidth="1"/>
+    <col min="37" max="37" width="11.8" customWidth="1"/>
+    <col min="38" max="38" width="14.7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
@@ -1572,36 +1569,36 @@
         <v>16</v>
       </c>
     </row>
+    <row r="2" spans="4:4">
+      <c r="D2" s="6"/>
+    </row>
   </sheetData>
-  <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M$1:M$1048576">
+  <dataValidations count="6">
+    <dataValidation type="date" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D$1:D$1048576">
+      <formula1>124</formula1>
+      <formula2>55011</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G$1:G$1048576">
+      <formula1>"Hinduism,Sikhism,Islam,Other,Christianity"</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F$1:F$1048576">
+      <formula1>4</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I$1:I$1048576">
       <formula1>"Uneducated/No formal education,5th Pass,8th Pass,High School/10th/Matric/Equivalent,Higher Secondary/Intermediate/12th/Equivalent,Graduate/Equivalent,Post Graduate/Equivalent,Other,Diploma/ITI"</formula1>
     </dataValidation>
-    <dataValidation type="textLength" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K$1:K$1048576">
-      <formula1>10</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J$1:J$1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H$1:H$1048576">
       <formula1>"General,MOBC,Other Backward Caste,Scheduled Caste,Scheduled Tribe(H),Scheduled Tribe(P)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I$1:I$1048576">
-      <formula1>"Hinduism,Sikhism,Islam,Other,Christianity"</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H$1:H$1048576">
-      <formula1>4</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G$1:G$1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E$1:E$1048576">
       <formula1>"Male,Female,Transgender,Any"</formula1>
-    </dataValidation>
-    <dataValidation type="date" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E$1:E$1048576">
-      <formula1>124</formula1>
-      <formula2>55011</formula2>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="K1:L1 N1:Q1 D1" numberStoredAsText="1"/>
+    <ignoredError sqref="C1 J1:M1" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -1609,10 +1606,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.7" defaultRowHeight="15.75" outlineLevelCol="4"/>
@@ -1658,10 +1655,10 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
         <v>26</v>
@@ -1675,10 +1672,10 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
         <v>26</v>
@@ -1698,13 +1695,13 @@
         <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1715,13 +1712,13 @@
         <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1735,10 +1732,10 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1749,7 +1746,7 @@
         <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D8" t="s">
         <v>39</v>
@@ -1763,10 +1760,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D9" t="s">
         <v>41</v>
@@ -1783,7 +1780,7 @@
         <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D10" t="s">
         <v>43</v>
@@ -1797,10 +1794,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D11" t="s">
         <v>45</v>
@@ -1814,16 +1811,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="D12" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1834,13 +1831,13 @@
         <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D13" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="E13" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1848,16 +1845,16 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D14" t="s">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="E14" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1868,56 +1865,119 @@
         <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>51</v>
+      </c>
+      <c r="E17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="2"/>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="2"/>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="2"/>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="2"/>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="2"/>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E15" t="s">
+    </row>
+    <row r="25" ht="30" customHeight="1" spans="1:1">
+      <c r="A25" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="2" t="s">
+    <row r="26" ht="30" customHeight="1" spans="1:1">
+      <c r="A26" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="19" ht="30" customHeight="1" spans="1:1">
-      <c r="A19" s="3" t="s">
+    <row r="27" ht="30" customHeight="1" spans="1:1">
+      <c r="A27" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="20" ht="30" customHeight="1" spans="1:1">
-      <c r="A20" s="3" t="s">
+    <row r="28" ht="30" customHeight="1" spans="1:1">
+      <c r="A28" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="21" ht="30" customHeight="1" spans="1:1">
-      <c r="A21" s="3" t="s">
+    <row r="29" ht="30" customHeight="1" spans="1:1">
+      <c r="A29" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="22" ht="30" customHeight="1" spans="1:1">
-      <c r="A22" s="3" t="s">
+    <row r="30" ht="30" customHeight="1" spans="1:3">
+      <c r="A30" s="3" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="23" ht="30" customHeight="1" spans="1:1">
-      <c r="A23" s="4" t="s">
+      <c r="C30" s="5" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="24" ht="30" customHeight="1" spans="1:3">
-      <c r="A24" s="3" t="s">
+    <row r="31" ht="30" customHeight="1" spans="1:1">
+      <c r="A31" s="5" t="s">
         <v>61</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="25" ht="30" customHeight="1" spans="1:1">
-      <c r="A25" s="5" t="s">
-        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/src/assets/Candidate_Template-Instruction.xlsx
+++ b/src/assets/Candidate_Template-Instruction.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12930" activeTab="1"/>
+    <workbookView windowWidth="20490" windowHeight="8250" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TemplateCandidate Template" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="67">
   <si>
     <t>Sl No</t>
   </si>
@@ -71,6 +71,9 @@
     <t>Placement Type</t>
   </si>
   <si>
+    <t>Dropout</t>
+  </si>
+  <si>
     <t>Field Name</t>
   </si>
   <si>
@@ -177,6 +180,18 @@
   </si>
   <si>
     <t xml:space="preserve">PLacement Type </t>
+  </si>
+  <si>
+    <t>wage</t>
+  </si>
+  <si>
+    <t>Drpout</t>
+  </si>
+  <si>
+    <t>batch dropout?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yes </t>
   </si>
   <si>
     <t>INSTRUCTION</t>
@@ -424,12 +439,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="26">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -446,6 +461,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
@@ -462,6 +483,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10.5"/>
+      <color rgb="FFCE9178"/>
+      <name val="Droid Sans Mono"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -477,13 +504,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -492,6 +512,57 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -500,6 +571,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -508,69 +618,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -590,28 +639,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -622,19 +649,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -646,13 +793,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -664,145 +829,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -850,7 +877,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -859,7 +886,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -875,21 +902,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -911,15 +923,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -928,164 +931,192 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1469,10 +1500,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelRow="1"/>
@@ -1516,7 +1547,7 @@
     <col min="38" max="38" width="14.7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1568,21 +1599,18 @@
       <c r="Q1" t="s">
         <v>16</v>
       </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="8"/>
     </row>
     <row r="2" spans="4:4">
-      <c r="D2" s="6"/>
+      <c r="D2" s="7"/>
     </row>
   </sheetData>
-  <dataValidations count="6">
-    <dataValidation type="date" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D$1:D$1048576">
-      <formula1>124</formula1>
-      <formula2>55011</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G$1:G$1048576">
-      <formula1>"Hinduism,Sikhism,Islam,Other,Christianity"</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F$1:F$1048576">
-      <formula1>4</formula1>
+  <dataValidations count="9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2:R1048576">
+      <formula1>"Yes,No"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I$1:I$1048576">
       <formula1>"Uneducated/No formal education,5th Pass,8th Pass,High School/10th/Matric/Equivalent,Higher Secondary/Intermediate/12th/Equivalent,Graduate/Equivalent,Post Graduate/Equivalent,Other,Diploma/ITI"</formula1>
@@ -1590,15 +1618,29 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H$1:H$1048576">
       <formula1>"General,MOBC,Other Backward Caste,Scheduled Caste,Scheduled Tribe(H),Scheduled Tribe(P)"</formula1>
     </dataValidation>
+    <dataValidation type="textLength" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F$1:F$1048576">
+      <formula1>4</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E$1:E$1048576">
       <formula1>"Male,Female,Transgender,Any"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G$1:G$1048576">
+      <formula1>"Hinduism,Sikhism,Islam,Other,Christianity"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q1048576">
+      <formula1>"Wage-Employement,Self-Employement"</formula1>
+    </dataValidation>
+    <dataValidation type="date" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D$1:D$1048576">
+      <formula1>124</formula1>
+      <formula2>55011</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q1 R1"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="C1 J1:M1" numberStoredAsText="1"/>
+    <ignoredError sqref="J1:M1 C1" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -1608,8 +1650,8 @@
   <sheetPr/>
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="B22" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.7" defaultRowHeight="15.75" outlineLevelCol="4"/>
@@ -1621,19 +1663,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1641,16 +1683,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1658,16 +1700,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1675,16 +1717,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1692,16 +1734,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1709,16 +1751,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1726,16 +1768,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1743,16 +1785,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1760,16 +1802,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1777,16 +1819,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1794,16 +1836,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1811,16 +1853,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D12" t="s">
         <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1828,16 +1870,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D13" t="s">
         <v>11</v>
       </c>
       <c r="E13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1845,16 +1887,16 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D14" t="s">
         <v>12</v>
       </c>
       <c r="E14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1862,16 +1904,16 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1879,16 +1921,16 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E16" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1896,88 +1938,105 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E17" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="2"/>
+        <v>53</v>
+      </c>
+      <c r="E18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" t="s">
+        <v>56</v>
+      </c>
+      <c r="E19" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="2"/>
+      <c r="A20" s="3"/>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="2"/>
+      <c r="A21" s="3"/>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="2"/>
+      <c r="A22" s="3"/>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="2"/>
+      <c r="A23" s="3"/>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="2" t="s">
-        <v>53</v>
+      <c r="A24" s="3" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="25" ht="30" customHeight="1" spans="1:1">
-      <c r="A25" s="3" t="s">
-        <v>54</v>
+      <c r="A25" s="4" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="26" ht="30" customHeight="1" spans="1:1">
-      <c r="A26" s="3" t="s">
-        <v>55</v>
+      <c r="A26" s="4" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="27" ht="30" customHeight="1" spans="1:1">
-      <c r="A27" s="3" t="s">
-        <v>56</v>
+      <c r="A27" s="4" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="28" ht="30" customHeight="1" spans="1:1">
-      <c r="A28" s="3" t="s">
-        <v>57</v>
+      <c r="A28" s="4" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="29" ht="30" customHeight="1" spans="1:1">
-      <c r="A29" s="4" t="s">
-        <v>58</v>
+      <c r="A29" s="5" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="30" ht="30" customHeight="1" spans="1:3">
-      <c r="A30" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>60</v>
+      <c r="A30" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="31" ht="30" customHeight="1" spans="1:1">
-      <c r="A31" s="5" t="s">
-        <v>61</v>
+      <c r="A31" s="6" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
